--- a/01_MASTER/03_Other/tesztadatok.xlsx
+++ b/01_MASTER/03_Other/tesztadatok.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <f>SUM(D12:D20)</f>
+        <v>1400.3333333333335</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -808,6 +811,12 @@
       <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="3">
+        <f>SUM(D23:D31)</f>
+        <v>13427</v>
       </c>
     </row>
   </sheetData>
